--- a/biology/Zoologie/Chrysiridia/Chrysiridia.xlsx
+++ b/biology/Zoologie/Chrysiridia/Chrysiridia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysiridia est un genre de lépidoptères (papillons) africains de la famille des Uraniidae et de la sous-famille des Uraniinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Chrysiridia a été décrit par l'entomologiste allemand Jakob Hübner en 1823. Son espèce type est Chrysiridia riphearia Hübner, [1823], un synonyme de Chrysiridia rhipheus (Drury, 1773)[1].
-Chrysiridia a pour synonymes[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Chrysiridia a été décrit par l'entomologiste allemand Jakob Hübner en 1823. Son espèce type est Chrysiridia riphearia Hübner, , un synonyme de Chrysiridia rhipheus (Drury, 1773).
+Chrysiridia a pour synonymes : 
 Thaliura Duncan, 1837
 Ripheus Swainson, 1833</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La plupart des sources récentes reconnaissent deux espèces dans ce genreBioLib                    (26 août 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La plupart des sources récentes reconnaissent deux espèces dans ce genreBioLib                    (26 août 2020) :
 Chrysiridia croesus Gerstaecker, 1871 – Afrique de l'Est.
 Chrysiridia rhipheus (Drury, 1773) – Madagascar.</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysiridia est l'un des trois genres d'Uraniidae dont les imagos ont une activité diurne. Les Chrysiridia qui résident à Madagascar sont migratrices entre l'est et l'ouest de l'île.
 </t>
